--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730152327263" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730170114844" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730170114844" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730170583649" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730171208663" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165029112392062" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911260204015" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911260214045" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291126078502" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911261397064" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730151938293.csv</t>
+          <t>go_stims-16502911238633564.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730152172835.csv</t>
+          <t>GNG_stims-165029112388897.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873015218284.csv</t>
+          <t>go_stims-1650291123896218.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873015231748.csv</t>
+          <t>GNG_stims-1650291123919616.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730152404802.csv</t>
+          <t>OB-1650291124794414.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730166118062.csv</t>
+          <t>TB-16502911260086472.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730169475372.csv</t>
+          <t>TB-1650291125280753.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730162364607.csv</t>
+          <t>OB-1650291124661566.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730168324366.csv</t>
+          <t>ZB-match_2-16502911244722397.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873016691203.csv</t>
+          <t>ZB-match_0-16502911241647518.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16498730158302848.csv</t>
+          <t>OB-16502911247676883.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873015522686.csv</t>
+          <t>TB-16502911255252764.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730169958277.csv</t>
+          <t>ZB-match_4-16502911243968425.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730170271065.csv</t>
+          <t>MM_stims-1650291126036338.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730170114844.csv</t>
+          <t>ZM_stims-16502911260234077.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730170427308.csv</t>
+          <t>MM_stims-1650291126062146.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730170271065.csv</t>
+          <t>ZM_stims-16502911260373404.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730170583649.csv</t>
+          <t>MM_stims-16502911260775266.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730170427308.csv</t>
+          <t>ZM_stims-165029112606315.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730170739534.csv</t>
+          <t>SAT_stims-1650291126092713.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730170896175.csv</t>
+          <t>vSAT_stims-16502911261082945.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730170583649.csv</t>
+          <t>vSAT_stims-16502911261245873.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730171052449.csv</t>
+          <t>SAT_stims-1650291126080496.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165029112392062" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911260204015" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911260214045" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291126078502" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911261397064" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777813653793" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777823934112" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504777823943772" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477782457409" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777825193763" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911238633564.csv</t>
+          <t>go_stims-1650477781324376.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-165029112388897.csv</t>
+          <t>GNG_stims-16504777813493748.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291123896218.csv</t>
+          <t>go_stims-16504777813503752.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291123919616.csv</t>
+          <t>GNG_stims-16504777813644102.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291124794414.csv</t>
+          <t>ZB-match_3-16504777814363751.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911260086472.csv</t>
+          <t>OB-1650477781675409.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650291125280753.csv</t>
+          <t>ZB-match_6-16504777814764092.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650291124661566.csv</t>
+          <t>TB-165047778237041.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502911244722397.csv</t>
+          <t>TB-1650477782344375.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911241647518.csv</t>
+          <t>OB-16504777820424118.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911247676883.csv</t>
+          <t>TB-16504777822754128.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16502911255252764.csv</t>
+          <t>OB-16504777821644094.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502911243968425.csv</t>
+          <t>ZB-match_6-165047778139538.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291126036338.csv</t>
+          <t>MM_stims-1650477782409375.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911260234077.csv</t>
+          <t>ZM_stims-16504777823963804.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291126062146.csv</t>
+          <t>MM_stims-16504777824413745.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911260373404.csv</t>
+          <t>ZM_stims-1650477782410375.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911260775266.csv</t>
+          <t>MM_stims-1650477782457409.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-165029112606315.csv</t>
+          <t>ZM_stims-16504777824423785.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291126092713.csv</t>
+          <t>vSAT_stims-16504777824873755.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911261082945.csv</t>
+          <t>SAT_stims-16504777824603775.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911261245873.csv</t>
+          <t>vSAT_stims-16504777825033758.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291126080496.csv</t>
+          <t>SAT_stims-16504777824723778.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777813653793" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777823934112" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504777823943772" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477782457409" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777825193763" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996069779039" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509960716153831" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509960716153831" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960716634183" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960717273836" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477781324376.csv</t>
+          <t>go_stims-1650996069738999.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777813493748.csv</t>
+          <t>GNG_stims-16509960697630353.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504777813503752.csv</t>
+          <t>go_stims-16509960697630353.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777813644102.csv</t>
+          <t>GNG_stims-1650996069779039.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504777814363751.csv</t>
+          <t>OB-16509960701113844.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650477781675409.csv</t>
+          <t>ZB-match_1-16509960698110092.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-16504777814764092.csv</t>
+          <t>OB-16509960707833881.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-165047778237041.csv</t>
+          <t>ZB-match_5-16509960699150007.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650477782344375.csv</t>
+          <t>TB-16509960709993858.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504777820424118.csv</t>
+          <t>TB-16509960712794287.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504777822754128.csv</t>
+          <t>OB-16509960702393897.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504777821644094.csv</t>
+          <t>TB-1650996071591418.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-165047778139538.csv</t>
+          <t>ZB-match_0-16509960699991362.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477782409375.csv</t>
+          <t>MM_stims-16509960716314187.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777823963804.csv</t>
+          <t>ZM_stims-16509960716153831.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777824413745.csv</t>
+          <t>MM_stims-16509960716473927.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477782410375.csv</t>
+          <t>ZM_stims-16509960716314187.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477782457409.csv</t>
+          <t>MM_stims-16509960716634183.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777824423785.csv</t>
+          <t>ZM_stims-16509960716473927.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777824873755.csv</t>
+          <t>SAT_stims-16509960716794236.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777824603775.csv</t>
+          <t>vSAT_stims-16509960717114193.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504777825033758.csv</t>
+          <t>vSAT_stims-16509960716954198.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777824723778.csv</t>
+          <t>SAT_stims-16509960716634183.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996069779039" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509960716153831" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509960716153831" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960716634183" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960717273836" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686534598207" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686573367705" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168657338707" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686573861086" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511686574622436" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996069738999.csv</t>
+          <t>go_stims-16511686534218023.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960697630353.csv</t>
+          <t>GNG_stims-16511686534426196.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960697630353.csv</t>
+          <t>go_stims-16511686534456115.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996069779039.csv</t>
+          <t>GNG_stims-1651168653458823.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960701113844.csv</t>
+          <t>OB-16511686547535627.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509960698110092.csv</t>
+          <t>TB-16511686573114028.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509960707833881.csv</t>
+          <t>ZB-match_9-16511686538366807.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509960699150007.csv</t>
+          <t>TB-16511686566443732.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509960709993858.csv</t>
+          <t>OB-16511686542225082.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509960712794287.csv</t>
+          <t>ZB-match_2-16511686535152845.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509960702393897.csv</t>
+          <t>OB-16511686543955374.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1650996071591418.csv</t>
+          <t>TB-1651168656971683.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509960699991362.csv</t>
+          <t>ZB-match_2-16511686537483432.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960716314187.csv</t>
+          <t>MM_stims-16511686573525264.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960716153831.csv</t>
+          <t>ZM_stims-16511686573407562.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960716473927.csv</t>
+          <t>MM_stims-1651168657367715.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960716314187.csv</t>
+          <t>ZM_stims-1651168657353494.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960716634183.csv</t>
+          <t>MM_stims-16511686573841095.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960716473927.csv</t>
+          <t>ZM_stims-16511686573687053.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960716794236.csv</t>
+          <t>SAT_stims-1651168657416175.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960717114193.csv</t>
+          <t>vSAT_stims-16511686574469657.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960716954198.csv</t>
+          <t>SAT_stims-16511686573928082.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960716634183.csv</t>
+          <t>vSAT_stims-16511686574308195.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686534598207" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686573367705" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168657338707" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686573861086" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511686574622436" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255486796629" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512554887478058" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512554887498028" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512554888117676" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512554888900013" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686534218023.csv</t>
+          <t>go_stims-16512554867546308.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686534426196.csv</t>
+          <t>GNG_stims-1651255486778631.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686534456115.csv</t>
+          <t>go_stims-16512554867796311.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168653458823.csv</t>
+          <t>GNG_stims-1651255486795629.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511686547535627.csv</t>
+          <t>ZB-match_0-16512554870566304.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511686573114028.csv</t>
+          <t>OB-1651255487461635.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511686538366807.csv</t>
+          <t>ZB-match_4-16512554868556652.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511686566443732.csv</t>
+          <t>TB-16512554878496318.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511686542225082.csv</t>
+          <t>TB-1651255488212629.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686535152845.csv</t>
+          <t>ZB-match_4-16512554870216627.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511686543955374.csv</t>
+          <t>OB-16512554871066618.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1651168656971683.csv</t>
+          <t>OB-1651255487082663.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511686537483432.csv</t>
+          <t>TB-16512554887287996.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686573525264.csv</t>
+          <t>MM_stims-16512554887638009.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686573407562.csv</t>
+          <t>ZM_stims-16512554887517667.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168657367715.csv</t>
+          <t>MM_stims-16512554887947762.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168657353494.csv</t>
+          <t>ZM_stims-16512554887647672.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686573841095.csv</t>
+          <t>MM_stims-16512554888107657.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686573687053.csv</t>
+          <t>ZM_stims-16512554887957673.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168657416175.csv</t>
+          <t>vSAT_stims-16512554888579721.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686574469657.csv</t>
+          <t>SAT_stims-1651255488842002.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686573928082.csv</t>
+          <t>vSAT_stims-16512554888740048.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686574308195.csv</t>
+          <t>SAT_stims-16512554888157709.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_04/participant_04_task_orders.xlsx
+++ b/participants/participant_04/participant_04_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255486796629" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512554887478058" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512554887498028" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512554888117676" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512554888900013" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515889171565597" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515889198194294" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515889198817332" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889198836997" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889199304583" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512554867546308.csv</t>
+          <t>MM_stims-16515889171250255.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255486778631.csv</t>
+          <t>ZM_stims-16515889171143084.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512554867796311.csv</t>
+          <t>MM_stims-16515889171410348.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255486795629.csv</t>
+          <t>ZM_stims-16515889171259944.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889171565597.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651588917142996.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16512554870566304.csv</t>
+          <t>ZB-match_8-16515889172999399.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651255487461635.csv</t>
+          <t>OB-16515889188608818.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512554868556652.csv</t>
+          <t>TB-16515889198079295.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512554878496318.csv</t>
+          <t>OB-16515889185193129.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1651255488212629.csv</t>
+          <t>ZB-match_4-1651588917347931.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512554870216627.csv</t>
+          <t>TB-16515889189233277.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512554871066618.csv</t>
+          <t>ZB-match_1-16515889174699535.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651255487082663.csv</t>
+          <t>TB-1651588919266312.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16512554887287996.csv</t>
+          <t>OB-16515889185822866.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889198504512.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889198661945.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651588919823452.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889198360057.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554887638009.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554887517667.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554887947762.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554887647672.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512554888107657.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512554887957673.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554888579721.csv</t>
+          <t>go_stims-1651588919884939.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255488842002.csv</t>
+          <t>GNG_stims-16515889199122446.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512554888740048.csv</t>
+          <t>go_stims-16515889199133317.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512554888157709.csv</t>
+          <t>GNG_stims-1651588919929421.csv</t>
         </is>
       </c>
     </row>
